--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\SoCtMbCtBDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01715051-68EC-475A-BF6C-EC123AF8D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F97D7-5596-41D8-B0ED-AA1D441B4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1695" windowWidth="30585" windowHeight="19365" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,9 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F97D7-5596-41D8-B0ED-AA1D441B4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE9B0E7-66D0-4DB1-A401-D63FA6B79705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>SoCtMbCtbDP Share of Costs that Must be Covered to be Deemed Profitable</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Unit: dimensionless (% of costs)</t>
-  </si>
-  <si>
-    <t>Share of costs covered to be deemed profitable</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -521,8 +518,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,8 +531,8 @@
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
+      <c r="B1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE9B0E7-66D0-4DB1-A401-D63FA6B79705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788502CC-5585-4250-9E43-2507ACE5592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="9600" yWindow="3330" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="B1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788502CC-5585-4250-9E43-2507ACE5592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0B644-3E0B-4E12-A043-6678D0B8828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3330" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>SoCtMbCtbDP Share of Costs that Must be Covered to be Deemed Profitable</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Unit: dimensionless (% of costs)</t>
+  </si>
+  <si>
+    <t>share of costs that must be covered</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,8 +534,8 @@
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1">
-        <v>0.8</v>
+      <c r="B1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoCtMbCtBDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0B644-3E0B-4E12-A043-6678D0B8828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2753B1-1EA0-4781-9E6A-4B33A4E0DEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>SoCtMbCtbDP Share of Costs that Must be Covered to be Deemed Profitable</t>
   </si>
@@ -114,13 +114,16 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>Unit: dimensionless (% of costs)</t>
   </si>
   <si>
     <t>share of costs that must be covered</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -519,10 +522,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,9 +719,17 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
